--- a/data/trans_bre/P23_DUKE_AC_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>-9,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>-17,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>234,79%</t>
+          <t>-7,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-10,72%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-21,05%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 7,42</t>
+          <t>-15,9; 4,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 8,72</t>
+          <t>-12,63; 10,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 13,31</t>
+          <t>-7,79; 15,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 9,36</t>
+          <t>-11,97; 10,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,48; 145,77</t>
+          <t>-20,17; 0,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 197,8</t>
+          <t>-28,13; -5,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 1504,29</t>
+          <t>-19,36; 6,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 15,05</t>
+          <t>-16,18; 15,54</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 27,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-14,15; 15,22</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-22,51; 1,08</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-32,75; -7,59</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,83%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>11,34%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 9,5</t>
+          <t>-0,8; 21,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 7,37</t>
+          <t>1,08; 17,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 5,89</t>
+          <t>-8,65; 8,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 14,64</t>
+          <t>-5,57; 17,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,83; 135,67</t>
+          <t>-7,32; 19,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 145,2</t>
+          <t>-6,22; 20,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 76,13</t>
+          <t>-1,07; 34,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 23,42</t>
+          <t>1,36; 24,83</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-11,0; 12,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 28,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 29,32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 31,8</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,84%</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,22%</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,4%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 2,01</t>
+          <t>-4,8; 12,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 3,36</t>
+          <t>-3,66; 8,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 3,92</t>
+          <t>-6,0; 5,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 12,38</t>
+          <t>-2,48; 15,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,25; 14,9</t>
+          <t>1,85; 15,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 30,96</t>
+          <t>-12,0; 3,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 26,29</t>
+          <t>-5,89; 17,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 17,63</t>
+          <t>-4,22; 10,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 6,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 22,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 20,94</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 3,71</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,72%</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,61%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,31%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,49%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 8,18</t>
+          <t>-2,13; 13,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 4,09</t>
+          <t>-1,15; 10,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 5,12</t>
+          <t>4,23; 16,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 3,24</t>
+          <t>-3,24; 8,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 64,97</t>
+          <t>-6,23; 4,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 21,11</t>
+          <t>-7,52; 4,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 28,76</t>
+          <t>-2,62; 17,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 3,61</t>
+          <t>-1,32; 13,51</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 22,58</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 10,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 4,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 5,81</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,03%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-6,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 13,34</t>
+          <t>-6,34; 11,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 6,53</t>
+          <t>-2,71; 12,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 11,55</t>
+          <t>-8,16; 6,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 4,93</t>
+          <t>-2,89; 12,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 112,0</t>
+          <t>-12,93; 1,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 45,97</t>
+          <t>-3,3; 10,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 76,7</t>
+          <t>-7,82; 16,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 6,46</t>
+          <t>-3,26; 16,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,52; 7,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 15,25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-13,9; 2,03</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 13,51</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-7,81</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,03%</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>-11,74</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-5,49%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-8,75%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,03%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-13,24%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 8,94</t>
+          <t>-13,27; 5,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 5,95</t>
+          <t>-8,48; 10,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 21,8</t>
+          <t>-14,26; 7,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 5,01</t>
+          <t>-16,64; 2,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,03; 57,86</t>
+          <t>-17,77; 3,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,67; 44,17</t>
+          <t>-22,03; -2,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 135,7</t>
+          <t>-16,42; 7,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 6,24</t>
+          <t>-10,04; 13,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,77; 10,32</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-18,33; 2,55</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-20,45; 3,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-23,97; -2,5</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-4,65%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,97</t>
+          <t>-1,68; 5,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,32</t>
+          <t>-0,13; 6,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,11</t>
+          <t>-1,57; 4,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,17</t>
+          <t>-1,93; 5,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 29,35</t>
+          <t>-4,7; 2,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 17,14</t>
+          <t>-7,75; -0,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 34,65</t>
+          <t>-2,13; 7,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 4,15</t>
+          <t>-0,15; 8,13</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 6,45</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 7,42</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 3,22</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; -0,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
